--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1439.91300924203</v>
+        <v>6138.473064566224</v>
       </c>
       <c r="R2">
-        <v>12959.21708317826</v>
+        <v>55246.25758109601</v>
       </c>
       <c r="S2">
-        <v>0.002232015581519397</v>
+        <v>0.004321241246736782</v>
       </c>
       <c r="T2">
-        <v>0.002232015581519397</v>
+        <v>0.004321241246736782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>2212.143696169625</v>
+        <v>5055.073872883796</v>
       </c>
       <c r="R3">
-        <v>19909.29326552663</v>
+        <v>45495.66485595416</v>
       </c>
       <c r="S3">
-        <v>0.003429053815556287</v>
+        <v>0.003558571243213646</v>
       </c>
       <c r="T3">
-        <v>0.003429053815556287</v>
+        <v>0.003558571243213646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>1105.39273867793</v>
+        <v>2916.432168034416</v>
       </c>
       <c r="R4">
-        <v>9948.534648101368</v>
+        <v>26247.88951230974</v>
       </c>
       <c r="S4">
-        <v>0.001713474217255876</v>
+        <v>0.002053052419594002</v>
       </c>
       <c r="T4">
-        <v>0.001713474217255875</v>
+        <v>0.002053052419594002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1759.429003195203</v>
+        <v>2947.797432458628</v>
       </c>
       <c r="R5">
-        <v>15834.86102875682</v>
+        <v>26530.17689212765</v>
       </c>
       <c r="S5">
-        <v>0.002727298749648804</v>
+        <v>0.002075132320070732</v>
       </c>
       <c r="T5">
-        <v>0.002727298749648804</v>
+        <v>0.002075132320070732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>883.7994283206513</v>
+        <v>2220.373693557937</v>
       </c>
       <c r="R6">
-        <v>7954.194854885861</v>
+        <v>19983.36324202143</v>
       </c>
       <c r="S6">
-        <v>0.001369981437967586</v>
+        <v>0.001563054897667759</v>
       </c>
       <c r="T6">
-        <v>0.001369981437967586</v>
+        <v>0.001563054897667759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>1160.226970345899</v>
+        <v>3714.876959354558</v>
       </c>
       <c r="R7">
-        <v>10442.04273311309</v>
+        <v>33433.89263419103</v>
       </c>
       <c r="S7">
-        <v>0.001798473004472874</v>
+        <v>0.002615125842284594</v>
       </c>
       <c r="T7">
-        <v>0.001798473004472874</v>
+        <v>0.002615125842284594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>9053.683758031642</v>
+        <v>16890.21770985595</v>
       </c>
       <c r="R8">
-        <v>81483.15382228479</v>
+        <v>152011.9593887036</v>
       </c>
       <c r="S8">
-        <v>0.01403415559715874</v>
+        <v>0.01189004246927509</v>
       </c>
       <c r="T8">
-        <v>0.01403415559715875</v>
+        <v>0.01189004246927509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>13909.20793401665</v>
@@ -1013,10 +1013,10 @@
         <v>125182.8714061498</v>
       </c>
       <c r="S9">
-        <v>0.02156072529107906</v>
+        <v>0.009791529978499396</v>
       </c>
       <c r="T9">
-        <v>0.02156072529107907</v>
+        <v>0.009791529978499396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>6950.333957801129</v>
+        <v>8024.662442272912</v>
       </c>
       <c r="R10">
-        <v>62553.00562021016</v>
+        <v>72221.96198045621</v>
       </c>
       <c r="S10">
-        <v>0.01077374368521171</v>
+        <v>0.005649043658243965</v>
       </c>
       <c r="T10">
-        <v>0.01077374368521171</v>
+        <v>0.005649043658243965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>11062.69176498614</v>
+        <v>8110.965035618181</v>
       </c>
       <c r="R11">
-        <v>99564.22588487525</v>
+        <v>72998.68532056361</v>
       </c>
       <c r="S11">
-        <v>0.01714832787432993</v>
+        <v>0.005709797256433825</v>
       </c>
       <c r="T11">
-        <v>0.01714832787432993</v>
+        <v>0.005709797256433825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>5557.030513778326</v>
+        <v>6109.433842417726</v>
       </c>
       <c r="R12">
-        <v>50013.27462400494</v>
+        <v>54984.90458175953</v>
       </c>
       <c r="S12">
-        <v>0.008613977798742931</v>
+        <v>0.004300798787642908</v>
       </c>
       <c r="T12">
-        <v>0.008613977798742931</v>
+        <v>0.004300798787642908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>7295.112975318146</v>
+        <v>10221.61048013983</v>
       </c>
       <c r="R13">
-        <v>65656.0167778633</v>
+        <v>91994.49432125851</v>
       </c>
       <c r="S13">
-        <v>0.01130818717890861</v>
+        <v>0.007195607824659975</v>
       </c>
       <c r="T13">
-        <v>0.01130818717890861</v>
+        <v>0.007195607824659975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>38118.1964027946</v>
+        <v>181830.413464137</v>
       </c>
       <c r="R14">
-        <v>343063.7676251514</v>
+        <v>1636473.721177233</v>
       </c>
       <c r="S14">
-        <v>0.05908718635387602</v>
+        <v>0.1280013896465563</v>
       </c>
       <c r="T14">
-        <v>0.05908718635387602</v>
+        <v>0.1280013896465564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>58561.12649901357</v>
+        <v>149738.5689780118</v>
       </c>
       <c r="R15">
-        <v>527050.1384911221</v>
+        <v>1347647.120802107</v>
       </c>
       <c r="S15">
-        <v>0.09077586352659747</v>
+        <v>0.1054100056625156</v>
       </c>
       <c r="T15">
-        <v>0.09077586352659747</v>
+        <v>0.1054100056625157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>29262.5854789162</v>
+        <v>86388.92137767829</v>
       </c>
       <c r="R16">
-        <v>263363.2693102458</v>
+        <v>777500.2923991046</v>
       </c>
       <c r="S16">
-        <v>0.04536006434087696</v>
+        <v>0.06081436969613942</v>
       </c>
       <c r="T16">
-        <v>0.04536006434087695</v>
+        <v>0.06081436969613944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>46576.60557971594</v>
+        <v>87318.00568556381</v>
       </c>
       <c r="R17">
-        <v>419189.4502174434</v>
+        <v>785862.0511700744</v>
       </c>
       <c r="S17">
-        <v>0.07219860416632647</v>
+        <v>0.06146840815011684</v>
       </c>
       <c r="T17">
-        <v>0.07219860416632647</v>
+        <v>0.06146840815011685</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>23396.44129414317</v>
+        <v>65770.66682511581</v>
       </c>
       <c r="R18">
-        <v>210567.9716472885</v>
+        <v>591936.0014260423</v>
       </c>
       <c r="S18">
-        <v>0.03626692806124494</v>
+        <v>0.04629993734934743</v>
       </c>
       <c r="T18">
-        <v>0.03626692806124494</v>
+        <v>0.04629993734934745</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>30714.1884569435</v>
+        <v>110040.0061029784</v>
       </c>
       <c r="R19">
-        <v>276427.6961124915</v>
+        <v>990360.0549268052</v>
       </c>
       <c r="S19">
-        <v>0.04761020059517918</v>
+        <v>0.07746379403506581</v>
       </c>
       <c r="T19">
-        <v>0.04761020059517918</v>
+        <v>0.07746379403506584</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>3521.335883402201</v>
+        <v>8460.768017907763</v>
       </c>
       <c r="R20">
-        <v>31692.02295061981</v>
+        <v>76146.91216116986</v>
       </c>
       <c r="S20">
-        <v>0.005458438467511604</v>
+        <v>0.005956044663468442</v>
       </c>
       <c r="T20">
-        <v>0.005458438467511604</v>
+        <v>0.005956044663468442</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>5409.841376920804</v>
+        <v>6967.499393088677</v>
       </c>
       <c r="R21">
-        <v>48688.57239228723</v>
+        <v>62707.49453779809</v>
       </c>
       <c r="S21">
-        <v>0.008385819260839783</v>
+        <v>0.004904842857065772</v>
       </c>
       <c r="T21">
-        <v>0.008385819260839785</v>
+        <v>0.004904842857065772</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>2703.259912908084</v>
+        <v>4019.771000729587</v>
       </c>
       <c r="R22">
-        <v>24329.33921617276</v>
+        <v>36177.93900656628</v>
       </c>
       <c r="S22">
-        <v>0.004190335254824709</v>
+        <v>0.002829759138483173</v>
       </c>
       <c r="T22">
-        <v>0.004190335254824709</v>
+        <v>0.002829759138483173</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>4302.718597223569</v>
+        <v>4063.00230977376</v>
       </c>
       <c r="R23">
-        <v>38724.46737501212</v>
+        <v>36567.02078796384</v>
       </c>
       <c r="S23">
-        <v>0.006669663299279238</v>
+        <v>0.002860192263109958</v>
       </c>
       <c r="T23">
-        <v>0.006669663299279239</v>
+        <v>0.002860192263109958</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>2161.349068103843</v>
+        <v>3060.381064910031</v>
       </c>
       <c r="R24">
-        <v>19452.14161293459</v>
+        <v>27543.42958419028</v>
       </c>
       <c r="S24">
-        <v>0.003350316835910559</v>
+        <v>0.002154386726034447</v>
       </c>
       <c r="T24">
-        <v>0.003350316835910559</v>
+        <v>0.002154386726034447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>2837.358116321672</v>
+        <v>5120.281841684768</v>
       </c>
       <c r="R25">
-        <v>25536.22304689505</v>
+        <v>46082.53657516291</v>
       </c>
       <c r="S25">
-        <v>0.004398201478375562</v>
+        <v>0.003604475063501664</v>
       </c>
       <c r="T25">
-        <v>0.004398201478375563</v>
+        <v>0.003604475063501664</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>38151.63900943178</v>
+        <v>75735.4104957823</v>
       </c>
       <c r="R26">
-        <v>343364.751084886</v>
+        <v>681618.6944620407</v>
       </c>
       <c r="S26">
-        <v>0.05913902588766846</v>
+        <v>0.05331472114165624</v>
       </c>
       <c r="T26">
-        <v>0.05913902588766847</v>
+        <v>0.05331472114165624</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>58612.50449961573</v>
+        <v>62368.62014746208</v>
       </c>
       <c r="R27">
-        <v>527512.5404965417</v>
+        <v>561317.5813271587</v>
       </c>
       <c r="S27">
-        <v>0.09085550479461525</v>
+        <v>0.04390503160126138</v>
       </c>
       <c r="T27">
-        <v>0.09085550479461527</v>
+        <v>0.04390503160126138</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>29288.25870660559</v>
+        <v>35982.43164154034</v>
       </c>
       <c r="R28">
-        <v>263594.3283594503</v>
+        <v>323841.8847738631</v>
       </c>
       <c r="S28">
-        <v>0.04539986052569008</v>
+        <v>0.02533020282598543</v>
       </c>
       <c r="T28">
-        <v>0.04539986052569008</v>
+        <v>0.02533020282598543</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>46617.46908444312</v>
+        <v>36369.41080581959</v>
       </c>
       <c r="R29">
-        <v>419557.2217599881</v>
+        <v>327324.6972523762</v>
       </c>
       <c r="S29">
-        <v>0.07226194686736544</v>
+        <v>0.02560262078868107</v>
       </c>
       <c r="T29">
-        <v>0.07226194686736545</v>
+        <v>0.02560262078868107</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>23416.96792070865</v>
+        <v>27394.58353354032</v>
       </c>
       <c r="R30">
-        <v>210752.7112863778</v>
+        <v>246551.2518018629</v>
       </c>
       <c r="S30">
-        <v>0.03629874647668817</v>
+        <v>0.0192846988261039</v>
       </c>
       <c r="T30">
-        <v>0.03629874647668818</v>
+        <v>0.0192846988261039</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>30741.13523354047</v>
+        <v>45833.5042768364</v>
       </c>
       <c r="R31">
-        <v>276670.2171018643</v>
+        <v>412501.5384915275</v>
       </c>
       <c r="S31">
-        <v>0.0476519709138374</v>
+        <v>0.03226496672386196</v>
       </c>
       <c r="T31">
-        <v>0.0476519709138374</v>
+        <v>0.03226496672386196</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>18221.69793756645</v>
+        <v>90186.38109869134</v>
       </c>
       <c r="R32">
-        <v>163995.2814380981</v>
+        <v>811677.4298882221</v>
       </c>
       <c r="S32">
-        <v>0.02824553529091141</v>
+        <v>0.06348763052284029</v>
       </c>
       <c r="T32">
-        <v>0.02824553529091141</v>
+        <v>0.06348763052284029</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>27994.06211859518</v>
+        <v>74269.09167583875</v>
       </c>
       <c r="R33">
-        <v>251946.5590673567</v>
+        <v>668421.8250825487</v>
       </c>
       <c r="S33">
-        <v>0.04339372061900984</v>
+        <v>0.05228249092756891</v>
       </c>
       <c r="T33">
-        <v>0.04339372061900984</v>
+        <v>0.05228249092756892</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>13988.4371189697</v>
+        <v>42848.19045197211</v>
       </c>
       <c r="R34">
-        <v>125895.9340707273</v>
+        <v>385633.714067749</v>
       </c>
       <c r="S34">
-        <v>0.02168353880425052</v>
+        <v>0.03016342435350886</v>
       </c>
       <c r="T34">
-        <v>0.02168353880425051</v>
+        <v>0.03016342435350887</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>22265.08381620422</v>
+        <v>43309.00858391957</v>
       </c>
       <c r="R35">
-        <v>200385.754345838</v>
+        <v>389781.0772552761</v>
       </c>
       <c r="S35">
-        <v>0.03451320578578784</v>
+        <v>0.03048782201691318</v>
       </c>
       <c r="T35">
-        <v>0.03451320578578783</v>
+        <v>0.03048782201691318</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>11184.23551762349</v>
+        <v>32621.70673430747</v>
       </c>
       <c r="R36">
-        <v>100658.1196586114</v>
+        <v>293595.3606087673</v>
       </c>
       <c r="S36">
-        <v>0.01733673338770584</v>
+        <v>0.02296438596317306</v>
       </c>
       <c r="T36">
-        <v>0.01733673338770584</v>
+        <v>0.02296438596317306</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>14682.34904259225</v>
+        <v>54578.93284977263</v>
       </c>
       <c r="R37">
-        <v>132141.1413833303</v>
+        <v>491210.3956479537</v>
       </c>
       <c r="S37">
-        <v>0.02275917477377546</v>
+        <v>0.03842140111271806</v>
       </c>
       <c r="T37">
-        <v>0.02275917477377546</v>
+        <v>0.03842140111271807</v>
       </c>
     </row>
   </sheetData>
